--- a/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/source/resources/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E87471-6E13-DC48-B976-6592E99635E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6237FA2-A121-4A3B-A018-7ACC4BCA9B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45200" yWindow="1020" windowWidth="25440" windowHeight="15400" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="8" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="ops" sheetId="7" r:id="rId5"/>
-    <sheet name="interactions" sheetId="5" r:id="rId6"/>
-    <sheet name="rest_interactions" sheetId="9" r:id="rId7"/>
-    <sheet name="sps" sheetId="4" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="10" r:id="rId9"/>
+    <sheet name="config" sheetId="11" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="8" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="3" r:id="rId5"/>
+    <sheet name="ops" sheetId="7" r:id="rId6"/>
+    <sheet name="interactions" sheetId="5" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="9" r:id="rId8"/>
+    <sheet name="sps" sheetId="4" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">profiles!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">profiles!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Value</t>
   </si>
@@ -222,9 +223,6 @@
     <t>forbidden_s_combos</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
-  </si>
-  <si>
     <t>DeviceRequest</t>
   </si>
   <si>
@@ -285,177 +283,223 @@
     <t>client</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL**
-1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>CFQM</t>
+  </si>
+  <si>
+    <t>reporter-client</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Reporter Client when conforming to the Da Vinci DEQM Implementation Guide.  Reporters include systems that are primary reporters of patient healthcare information and systems that consume data from Producers.   This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Reporter Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fixed_kv</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>imp_note</t>
+  </si>
+  <si>
+    <t>!Encounter</t>
+  </si>
+  <si>
+    <t>class,date</t>
+  </si>
+  <si>
+    <t>date,token</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>shall_include</t>
+  </si>
+  <si>
+    <t>should_include</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Clinical Quality Information Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cqi/index.cfm</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
+  </si>
+  <si>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci DEQM Producer Client **SHALL** support at least one of the following  transactions defined in the *Framework* Section of  this  Implementation Guide:
+- Individual Reporting
+- Summary Reporting
 </t>
   </si>
   <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>conf_MeasureReport</t>
-  </si>
-  <si>
-    <t>CFQM</t>
-  </si>
-  <si>
-    <t>reporter-client</t>
-  </si>
-  <si>
-    <t>The DaVinci DEQM Reporter Client **SHOULD** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM, CQFM and QI Core Profiles they reference.</t>
-  </si>
-  <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Reporter Client when conforming to the Da Vinci DEQM Implementation Guide.  Reporters include systems that are primary reporters of patient healthcare information and systems that consume data from Producers.   This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Reporter Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>combo_conf</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>fixed_kv</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>imp_note</t>
-  </si>
-  <si>
-    <t>!Encounter</t>
-  </si>
-  <si>
-    <t>class,date</t>
-  </si>
-  <si>
-    <t>date,token</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/us-qicore-3.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>shall_include</t>
-  </si>
-  <si>
-    <t>should_include</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
+    <t>The DaVinci DEQM Reporter Client **SHALL** be capable of supporting at least one of the DEQM MeasureReport Profiles listed above and all the DEQM, CQFM and QI Core Profiles they reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
   </si>
 </sst>
 </file>
@@ -867,89 +911,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFC67B7-00C2-40ED-8335-934B8B849BEB}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A46F-8381-432D-A5A2-CA05BE31957E}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="I1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
   </sheetData>
@@ -958,41 +1062,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
       <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1009,15 +1204,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1031,130 +1226,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1164,27 +1359,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1198,75 +1393,75 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
       </c>
       <c r="R1" t="s">
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1276,26 +1471,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1318,138 +1511,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F46D6-CA8E-44D2-B3D1-E2BF7BBCE19C}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1457,6 +1594,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F46D6-CA8E-44D2-B3D1-E2BF7BBCE19C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1464,21 +1663,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1531,80 +1730,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A46F-8381-432D-A5A2-CA05BE31957E}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6237FA2-A121-4A3B-A018-7ACC4BCA9B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975BE7C-934E-409E-86C2-AE76BB676B43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-17790" yWindow="90" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,31 +957,31 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
         <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A46F-8381-432D-A5A2-CA05BE31957E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1104,7 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975BE7C-934E-409E-86C2-AE76BB676B43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA81444-3C84-644C-A82B-FDD7EA41DF43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17790" yWindow="90" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-25200" yWindow="100" windowWidth="25200" windowHeight="13420" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>should_revinclude</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
   </si>
   <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
   </si>
   <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
@@ -500,6 +494,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
   </si>
 </sst>
 </file>
@@ -918,9 +918,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -928,60 +928,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -993,13 +993,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A46F-8381-432D-A5A2-CA05BE31957E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1065,17 +1065,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1091,23 +1091,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1115,15 +1115,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1131,20 +1131,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1160,13 +1160,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1174,20 +1174,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1204,15 +1204,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1226,9 +1226,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1240,9 +1240,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1254,9 +1254,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -1268,9 +1268,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1282,9 +1282,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1296,9 +1296,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -1310,9 +1310,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1324,9 +1324,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -1338,9 +1338,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1367,19 +1367,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1480,15 +1480,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1519,14 +1519,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1542,22 +1542,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1565,12 +1565,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1578,12 +1578,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1601,9 +1601,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1663,21 +1663,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA81444-3C84-644C-A82B-FDD7EA41DF43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547BDE7F-8133-4B37-855F-32D9BDB902EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="100" windowWidth="25200" windowHeight="13420" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -259,9 +262,6 @@
     <t>DEQM DeviceUseStatement Profile</t>
   </si>
   <si>
-    <t>DEQM Organization Profile</t>
-  </si>
-  <si>
     <t>DEQM Coverage Profile</t>
   </si>
   <si>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
@@ -487,19 +484,25 @@
     <t>The DaVinci DEQM Reporter Client **SHALL** be capable of supporting at least one of the DEQM MeasureReport Profiles listed above and all the DEQM, CQFM and QI Core Profiles they reference.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-organization</t>
+  </si>
+  <si>
+    <t>QI Core Organization Profile</t>
   </si>
 </sst>
 </file>
@@ -513,12 +516,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -546,6 +543,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -580,9 +585,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -594,12 +600,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -918,9 +925,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -928,60 +935,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -997,61 +1004,61 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="6" t="str">
         <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
@@ -1065,17 +1072,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1083,71 +1090,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
       <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{2B88F202-7AA0-4070-AC8E-E241F4CD7257}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1157,37 +1167,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.1640625" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1200,19 +1210,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1226,9 +1236,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1240,9 +1250,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1254,12 +1264,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1268,9 +1278,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1282,9 +1292,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1296,12 +1306,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>114</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1310,12 +1320,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1324,12 +1334,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1338,12 +1348,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1367,19 +1377,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1393,67 +1403,67 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>102</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>103</v>
       </c>
       <c r="R1" t="s">
         <v>27</v>
       </c>
       <c r="S1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="49" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1480,15 +1490,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1519,22 +1529,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1542,48 +1552,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1601,9 +1611,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1611,42 +1621,42 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1663,21 +1673,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
